--- a/biology/Médecine/Centre_hospitalier_de_Finlande_centrale/Centre_hospitalier_de_Finlande_centrale.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_Finlande_centrale/Centre_hospitalier_de_Finlande_centrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier de Finlande centrale (en finnois : Keski-Suomen keskussairaala) est l'ancien hôpital du KSSHP situé dans le quartier de Kukkumäki à Jyväskylä en Finlande. 
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'hôpital assurait les soins médicaux dans ses unités suivantes[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'hôpital assurait les soins médicaux dans ses unités suivantes:
 Hématologie
 Réadaptation fonctionnelle
 Pédiatrie 
@@ -555,12 +569,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ancien bâtiment
-L'hôpital a été conçu par les architectes Jonas Cedercreutz et Helge Railo. 
+          <t>Ancien bâtiment</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital a été conçu par les architectes Jonas Cedercreutz et Helge Railo. 
 L'hôpital ouvre en 1954, avec 375 lits de patients et plus de 3 000 employés.
 Le batiment est et rénové entre 1982 et 2002.
-Nouveau bâtiment Nova
-En août 2016, le district hospitalier de Finlande centrale lance la construction d'un nouvel hôpital du côté ouest de l'hôpital existant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Finlande_centrale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Finlande_centrale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouveau bâtiment Nova</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En août 2016, le district hospitalier de Finlande centrale lance la construction d'un nouvel hôpital du côté ouest de l'hôpital existant.
 Les 18 et 19 janvier 2021, les patients sont transférés à l'hôpital central de Finlande centrale Nova.
 </t>
         </is>
